--- a/Shiny/Dati/2Cloroetanolo.xlsx
+++ b/Shiny/Dati/2Cloroetanolo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camillo\GitHub\DoE_en\Shiny\Dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7E3461-8E10-4F21-BC3F-42EE67C8421A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011507CB-5107-4430-8B1E-B6EA5B3EACBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -340,14 +340,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,7 +870,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="L15" sqref="L15:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1473,7 +1479,7 @@
       <c r="K15" s="19">
         <v>-1</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="22">
         <v>8276.4500000000007</v>
       </c>
     </row>
@@ -1481,37 +1487,37 @@
       <c r="A16" s="5">
         <v>0</v>
       </c>
-      <c r="B16" s="20">
-        <v>0</v>
-      </c>
-      <c r="C16" s="20">
-        <v>0</v>
-      </c>
-      <c r="D16" s="20">
-        <v>0</v>
-      </c>
-      <c r="E16" s="20">
-        <v>0</v>
-      </c>
-      <c r="F16" s="20">
-        <v>0</v>
-      </c>
-      <c r="G16" s="20">
-        <v>0</v>
-      </c>
-      <c r="H16" s="20">
-        <v>0</v>
-      </c>
-      <c r="I16" s="20">
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
         <v>0</v>
       </c>
       <c r="J16" s="5">
         <v>-1</v>
       </c>
-      <c r="K16" s="21">
-        <v>-1</v>
-      </c>
-      <c r="L16" s="21">
+      <c r="K16" s="20">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="23">
         <v>5912.46</v>
       </c>
     </row>
@@ -1546,10 +1552,10 @@
       <c r="J17" s="7">
         <v>-1</v>
       </c>
-      <c r="K17" s="22">
-        <v>-1</v>
-      </c>
-      <c r="L17" s="22">
+      <c r="K17" s="21">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="24">
         <v>6407.7</v>
       </c>
     </row>
